--- a/test3.xlsx
+++ b/test3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Telefon raqam</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Salom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">998997621000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -132,13 +138,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,6 +164,14 @@
       </c>
       <c r="C2" s="1"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
